--- a/hailuoai_automator/record/prompts-wwe.xlsx
+++ b/hailuoai_automator/record/prompts-wwe.xlsx
@@ -546,7 +546,11 @@
           <t>男人扭腰热舞</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>record\wwe\e8b58fc43727c43d6a217d602dde18f4.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -559,7 +563,11 @@
           <t>男人扭腰热舞</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>record\wwe\ea9a97b5e528af49ec07afc3b1a14d32.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -572,7 +580,11 @@
           <t>男人扭腰热舞</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>record\wwe\e64010e95fb36676f28fd6abaa4bfd46.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,7 +597,11 @@
           <t>男人扭腰热舞</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>record\wwe\a16d7f60214fccd8916c28ac7160c820.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,7 +614,11 @@
           <t>男人扭腰热舞</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>record\wwe\972b8d9867733fd0044dd2bf9a30b67a.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
